--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3887.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3887.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3887</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alexander Daniel Hales</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -959,7 +1024,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1435,7 +1499,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1487,7 +1551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1539,7 +1603,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1591,7 +1655,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1643,7 +1707,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1695,7 +1759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1747,7 +1811,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1799,7 +1863,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1851,7 +1915,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1903,7 +1967,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1955,7 +2019,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2007,7 +2071,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2059,7 +2123,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2111,7 +2175,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2151,7 +2215,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -2159,7 +2222,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2211,7 +2274,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2263,7 +2326,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2315,7 +2378,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2367,7 +2430,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2419,7 +2482,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2471,7 +2534,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2523,7 +2586,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2575,7 +2638,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2627,7 +2690,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2679,7 +2742,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2731,7 +2794,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2783,7 +2846,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2835,7 +2898,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2887,7 +2950,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2939,7 +3002,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2991,7 +3054,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3043,7 +3106,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3095,7 +3158,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3147,7 +3210,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3199,7 +3262,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3251,7 +3314,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3303,7 +3366,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3355,7 +3418,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3407,7 +3470,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3459,7 +3522,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3511,7 +3574,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3563,7 +3626,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3615,7 +3678,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3667,7 +3730,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3719,7 +3782,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3771,7 +3834,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3823,7 +3886,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3875,7 +3938,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3927,7 +3990,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3967,7 +4030,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -3975,7 +4037,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4027,7 +4089,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4079,7 +4141,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4110,6 +4172,583 @@
       <c r="J71" t="inlineStr">
         <is>
           <t>35</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4068</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.05%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4070</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4072</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9.76%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.80%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13.51%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.64%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4165</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14.25%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.56%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.62%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4212</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4255</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4256</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19.62%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.35%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3887.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3887.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3887.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3887.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1024,6 +1023,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -2215,6 +2215,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -4030,6 +4031,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -4172,583 +4174,6 @@
       <c r="J71" t="inlineStr">
         <is>
           <t>35</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4068</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9.05%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4070</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4072</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9.76%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4108</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4115</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.80%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4117</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4123</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.53%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4125</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>13.51%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4149</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>26.64%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4165</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14.25%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4166</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.29%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4167</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4168</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>30.56%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4169</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4170</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.62%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4212</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4255</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4256</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>19.62%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4260</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>20.35%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
